--- a/biology/Histoire de la zoologie et de la botanique/Ferdinand_Broili/Ferdinand_Broili.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ferdinand_Broili/Ferdinand_Broili.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ferdinand Broili (né le 11 avril 1874 à Mühlbach, commune de Bad Neustadt an der Saale et décédé le 30 avril 1946 également à Mühlbach) est un paléontologue allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Permische stegocephalen und reptilien aus Texas, 1904 – Stégocéphaliens et reptiles du Permien du Texas.
 Grundzüge der Paläontologie (par Karl von Zittel, nouvelle édition par Broili, 1910–11).
@@ -521,7 +535,7 @@
 Zur geologie des Vogelkop, 1924 – La géologie de la Péninsule de Doberai.
 Ein neuer Fund von Pleurosaurus aus dem Malm Frankens, 1926 – Une nouvelle découverte de pleurosaurus du Jurassique supérieur de Franconie.
 Mixosauridae von Timor, 1931 – Mixosauridae (en) du Timor.
-Zur Osteologie des Kopfes von Cynognathus, 1934 – L'ostéologie du crâne de Cynognathus[1].</t>
+Zur Osteologie des Kopfes von Cynognathus, 1934 – L'ostéologie du crâne de Cynognathus.</t>
         </is>
       </c>
     </row>
